--- a/individual_results/avey/472.xlsx
+++ b/individual_results/avey/472.xlsx
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0.2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F2" t="n">
         <v>0.5</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0.25</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="P2" t="n">
         <v>0.2</v>
@@ -600,7 +600,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S2" t="n">
         <v>0.5</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.3333333333333333</v>
@@ -634,7 +634,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P3" t="n">
         <v>0.3333333333333333</v>
@@ -673,7 +673,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S3" t="n">
         <v>0.3333333333333333</v>
@@ -697,25 +697,21 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>0.25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>0.2857142857142858</v>
@@ -731,7 +727,7 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="P4" t="n">
         <v>0.25</v>
@@ -740,7 +736,7 @@
         <v>0.2</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S4" t="n">
         <v>0.4</v>
@@ -760,25 +756,21 @@
           <t>f2-score</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.5882352941176471</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0.2941176470588235</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.625</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="F5" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>0.3125</v>
@@ -794,7 +786,7 @@
         <v>0.5</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="P5" t="n">
         <v>0.2941176470588235</v>
@@ -803,7 +795,7 @@
         <v>0.2631578947368421</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7142857142857142</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="S5" t="n">
         <v>0.3571428571428571</v>
@@ -824,7 +816,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3612121135204019</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0.319393943239799</v>
@@ -833,7 +825,7 @@
         <v>0.6298989693877386</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5741414090136012</v>
+        <v>0.2015151419005024</v>
       </c>
       <c r="F6" t="n">
         <v>0.5773534652239384</v>
@@ -842,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.319393943239799</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -863,7 +855,7 @@
         <v>0.5544949421237185</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3719289566484385</v>
+        <v>0.1064646477465997</v>
       </c>
       <c r="P6" t="n">
         <v>0.319393943239799</v>
@@ -872,7 +864,7 @@
         <v>0.319393943239799</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3865656572066332</v>
+        <v>0.06717171396683416</v>
       </c>
       <c r="S6" t="n">
         <v>0.06717171396683416</v>
@@ -979,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -1052,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1120,9 +1112,7 @@
       <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="n">
-        <v>3</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>3</v>
       </c>
@@ -1136,9 +1126,7 @@
       <c r="N10" t="n">
         <v>8</v>
       </c>
-      <c r="O10" t="n">
-        <v>6</v>
-      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
@@ -1161,7 +1149,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>1.666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E11" t="n">
         <v>1.666666666666667</v>
